--- a/team_specific_matrix/Colgate_B.xlsx
+++ b/team_specific_matrix/Colgate_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1944444444444444</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C2">
-        <v>0.5277777777777778</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01111111111111111</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01030927835051546</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C3">
-        <v>0.01030927835051546</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02061855670103093</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7422680412371134</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2164948453608248</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5666666666666667</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.4634146341463415</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04142011834319527</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01183431952662722</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E6">
-        <v>0.005917159763313609</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="F6">
-        <v>0.04142011834319527</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2366863905325444</v>
+        <v>0.2311557788944724</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02366863905325444</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1656804733727811</v>
+        <v>0.1708542713567839</v>
       </c>
       <c r="R6">
-        <v>0.05917159763313609</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="S6">
-        <v>0.4142011834319527</v>
+        <v>0.407035175879397</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1384615384615385</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007692307692307693</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06153846153846154</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09230769230769231</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="R7">
-        <v>0.06153846153846154</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="S7">
-        <v>0.4538461538461538</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0580110497237569</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005524861878453038</v>
+        <v>0.006607929515418502</v>
       </c>
       <c r="E8">
-        <v>0.002762430939226519</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="F8">
-        <v>0.0580110497237569</v>
+        <v>0.05506607929515418</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1132596685082873</v>
+        <v>0.1167400881057269</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01104972375690608</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1850828729281768</v>
+        <v>0.1784140969162996</v>
       </c>
       <c r="R8">
-        <v>0.06629834254143646</v>
+        <v>0.07268722466960352</v>
       </c>
       <c r="S8">
-        <v>0.5</v>
+        <v>0.4933920704845815</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="E9">
-        <v>0.005</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="F9">
-        <v>0.08</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.1031390134529148</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.195</v>
+        <v>0.1838565022421525</v>
       </c>
       <c r="R9">
-        <v>0.07000000000000001</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="S9">
-        <v>0.47</v>
+        <v>0.4663677130044843</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08350515463917525</v>
+        <v>0.09105960264900662</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02474226804123711</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="E10">
-        <v>0.001030927835051546</v>
+        <v>0.0008278145695364238</v>
       </c>
       <c r="F10">
-        <v>0.06907216494845361</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1082474226804124</v>
+        <v>0.1142384105960265</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01134020618556701</v>
+        <v>0.009933774834437087</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1979381443298969</v>
+        <v>0.1928807947019868</v>
       </c>
       <c r="R10">
-        <v>0.09175257731958762</v>
+        <v>0.09437086092715231</v>
       </c>
       <c r="S10">
-        <v>0.4123711340206185</v>
+        <v>0.4039735099337748</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1608040201005025</v>
+        <v>0.1611570247933884</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1105527638190955</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="K11">
-        <v>0.2412060301507538</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L11">
-        <v>0.4723618090452261</v>
+        <v>0.487603305785124</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01507537688442211</v>
+        <v>0.01652892561983471</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7291666666666666</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="L12">
-        <v>0.02083333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0625</v>
+        <v>0.05833333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7894736842105263</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2105263157894737</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01234567901234568</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1358024691358025</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="I15">
-        <v>0.09876543209876543</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="J15">
-        <v>0.4135802469135803</v>
+        <v>0.4196891191709844</v>
       </c>
       <c r="K15">
-        <v>0.06790123456790123</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02469135802469136</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="N15">
-        <v>0.006172839506172839</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="O15">
-        <v>0.04938271604938271</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.191358024691358</v>
+        <v>0.2072538860103627</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01851851851851852</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1944444444444444</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="I16">
-        <v>0.1203703703703704</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="J16">
-        <v>0.4722222222222222</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="K16">
-        <v>0.07407407407407407</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04629629629629629</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.04629629629629629</v>
+        <v>0.05673758865248227</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008695652173913044</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1971014492753623</v>
+        <v>0.1966019417475728</v>
       </c>
       <c r="I17">
-        <v>0.0927536231884058</v>
+        <v>0.08495145631067962</v>
       </c>
       <c r="J17">
-        <v>0.4202898550724637</v>
+        <v>0.4320388349514563</v>
       </c>
       <c r="K17">
-        <v>0.06376811594202898</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.04057971014492753</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07246376811594203</v>
+        <v>0.0703883495145631</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1043478260869565</v>
+        <v>0.09951456310679611</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02797202797202797</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1748251748251748</v>
+        <v>0.2021857923497268</v>
       </c>
       <c r="I18">
-        <v>0.1538461538461539</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="J18">
-        <v>0.3986013986013986</v>
+        <v>0.4043715846994536</v>
       </c>
       <c r="K18">
-        <v>0.06293706293706294</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02797202797202797</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="N18">
-        <v>0.006993006993006993</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="O18">
-        <v>0.05594405594405594</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.08196721311475409</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01491146318732526</v>
+        <v>0.01471727343144849</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2115563839701771</v>
+        <v>0.2199845081332301</v>
       </c>
       <c r="I19">
-        <v>0.1109040074557316</v>
+        <v>0.104570100697134</v>
       </c>
       <c r="J19">
-        <v>0.3653308480894688</v>
+        <v>0.372579395817196</v>
       </c>
       <c r="K19">
-        <v>0.09412861136999068</v>
+        <v>0.09527498063516654</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01397949673811743</v>
+        <v>0.01316808675445391</v>
       </c>
       <c r="N19">
-        <v>0.001863932898415657</v>
+        <v>0.001549186676994578</v>
       </c>
       <c r="O19">
-        <v>0.06989748369058714</v>
+        <v>0.06738962044926414</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1174277726001864</v>
+        <v>0.1107668474051123</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Colgate_B.xlsx
+++ b/team_specific_matrix/Colgate_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1956521739130435</v>
+        <v>0.1983471074380165</v>
       </c>
       <c r="C2">
-        <v>0.5434782608695652</v>
+        <v>0.5371900826446281</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01304347826086956</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.108695652173913</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1391304347826087</v>
+        <v>0.1446280991735537</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007936507936507936</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C3">
-        <v>0.007936507936507936</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01587301587301587</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.753968253968254</v>
+        <v>0.7557251908396947</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2142857142857143</v>
+        <v>0.2137404580152672</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02439024390243903</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5121951219512195</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4634146341463415</v>
+        <v>0.4489795918367347</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04020100502512563</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01507537688442211</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="E6">
-        <v>0.005025125628140704</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="F6">
-        <v>0.04020100502512563</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2311557788944724</v>
+        <v>0.2350230414746544</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02512562814070352</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1708542713567839</v>
+        <v>0.1797235023041475</v>
       </c>
       <c r="R6">
-        <v>0.06532663316582915</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="S6">
-        <v>0.407035175879397</v>
+        <v>0.4101382488479263</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1217948717948718</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00641025641025641</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0641025641025641</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09615384615384616</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02564102564102564</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1538461538461539</v>
+        <v>0.1616766467065868</v>
       </c>
       <c r="R7">
-        <v>0.07051282051282051</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="S7">
-        <v>0.4615384615384616</v>
+        <v>0.4610778443113773</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06167400881057269</v>
+        <v>0.05996131528046422</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006607929515418502</v>
+        <v>0.01353965183752418</v>
       </c>
       <c r="E8">
-        <v>0.002202643171806168</v>
+        <v>0.001934235976789168</v>
       </c>
       <c r="F8">
-        <v>0.05506607929515418</v>
+        <v>0.05222437137330754</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1167400881057269</v>
+        <v>0.1141199226305609</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.013215859030837</v>
+        <v>0.01160541586073501</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1784140969162996</v>
+        <v>0.1798839458413926</v>
       </c>
       <c r="R8">
-        <v>0.07268722466960352</v>
+        <v>0.07543520309477757</v>
       </c>
       <c r="S8">
-        <v>0.4933920704845815</v>
+        <v>0.4912959381044487</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06278026905829596</v>
+        <v>0.05907172995780591</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01345291479820628</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="E9">
-        <v>0.004484304932735426</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="F9">
-        <v>0.07623318385650224</v>
+        <v>0.07172995780590717</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1031390134529148</v>
+        <v>0.0970464135021097</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01345291479820628</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1838565022421525</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="R9">
-        <v>0.07623318385650224</v>
+        <v>0.08438818565400844</v>
       </c>
       <c r="S9">
-        <v>0.4663677130044843</v>
+        <v>0.4641350210970464</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09105960264900662</v>
+        <v>0.08633633633633633</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02649006622516556</v>
+        <v>0.02627627627627628</v>
       </c>
       <c r="E10">
-        <v>0.0008278145695364238</v>
+        <v>0.0007507507507507507</v>
       </c>
       <c r="F10">
-        <v>0.06622516556291391</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1142384105960265</v>
+        <v>0.1156156156156156</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009933774834437087</v>
+        <v>0.01051051051051051</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1928807947019868</v>
+        <v>0.1921921921921922</v>
       </c>
       <c r="R10">
-        <v>0.09437086092715231</v>
+        <v>0.0915915915915916</v>
       </c>
       <c r="S10">
-        <v>0.4039735099337748</v>
+        <v>0.4091591591591592</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1611570247933884</v>
+        <v>0.1524163568773234</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1074380165289256</v>
+        <v>0.1078066914498141</v>
       </c>
       <c r="K11">
-        <v>0.2272727272727273</v>
+        <v>0.2193308550185874</v>
       </c>
       <c r="L11">
-        <v>0.487603305785124</v>
+        <v>0.5018587360594795</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01652892561983471</v>
+        <v>0.01858736059479554</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7166666666666667</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="K12">
-        <v>0.008333333333333333</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L12">
-        <v>0.01666666666666667</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05833333333333333</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7906976744186046</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2093023255813954</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01036269430051814</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1450777202072539</v>
+        <v>0.1455399061032864</v>
       </c>
       <c r="I15">
-        <v>0.08290155440414508</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="J15">
-        <v>0.4196891191709844</v>
+        <v>0.4131455399061033</v>
       </c>
       <c r="K15">
-        <v>0.05699481865284974</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02072538860103627</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N15">
-        <v>0.005181347150259068</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="O15">
-        <v>0.05181347150259067</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2072538860103627</v>
+        <v>0.2065727699530517</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01418439716312057</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1843971631205674</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="I16">
-        <v>0.09929078014184398</v>
+        <v>0.09271523178807947</v>
       </c>
       <c r="J16">
-        <v>0.5106382978723404</v>
+        <v>0.5298013245033113</v>
       </c>
       <c r="K16">
-        <v>0.07092198581560284</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02127659574468085</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0425531914893617</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.05673758865248227</v>
+        <v>0.05298013245033113</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009708737864077669</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1966019417475728</v>
+        <v>0.2008733624454148</v>
       </c>
       <c r="I17">
-        <v>0.08495145631067962</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="J17">
-        <v>0.4320388349514563</v>
+        <v>0.4192139737991266</v>
       </c>
       <c r="K17">
-        <v>0.06796116504854369</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03883495145631068</v>
+        <v>0.03711790393013101</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002183406113537118</v>
       </c>
       <c r="O17">
-        <v>0.0703883495145631</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09951456310679611</v>
+        <v>0.09606986899563319</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0273224043715847</v>
+        <v>0.025</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2021857923497268</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.1420765027322404</v>
+        <v>0.14</v>
       </c>
       <c r="J18">
-        <v>0.4043715846994536</v>
+        <v>0.42</v>
       </c>
       <c r="K18">
-        <v>0.06010928961748634</v>
+        <v>0.055</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0273224043715847</v>
+        <v>0.03</v>
       </c>
       <c r="N18">
-        <v>0.00546448087431694</v>
+        <v>0.005</v>
       </c>
       <c r="O18">
-        <v>0.04918032786885246</v>
+        <v>0.045</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08196721311475409</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01471727343144849</v>
+        <v>0.01403508771929825</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2199845081332301</v>
+        <v>0.2301754385964912</v>
       </c>
       <c r="I19">
-        <v>0.104570100697134</v>
+        <v>0.09964912280701754</v>
       </c>
       <c r="J19">
-        <v>0.372579395817196</v>
+        <v>0.3719298245614035</v>
       </c>
       <c r="K19">
-        <v>0.09527498063516654</v>
+        <v>0.09614035087719298</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01316808675445391</v>
+        <v>0.01192982456140351</v>
       </c>
       <c r="N19">
-        <v>0.001549186676994578</v>
+        <v>0.001403508771929824</v>
       </c>
       <c r="O19">
-        <v>0.06738962044926414</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1107668474051123</v>
+        <v>0.1080701754385965</v>
       </c>
     </row>
   </sheetData>
